--- a/data/trans_dic/P6905-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P6905-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P6905-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P6905-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>28,34%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>19,51%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,45%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,07%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,05%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,19%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,09%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,84%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,81%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,67%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,07</t>
+          <t>16,23; 42,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>5,74; 45,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,42 +744,42 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>34,48; 79,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>0,0; 60,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>15,58; 71,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>11,29; 77,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,82</t>
+          <t>26,22; 48,89</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>4,8; 34,81</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>13,25; 45,26</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>7,99; 57,87</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,67%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,65%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,66%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,79%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,06%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,35%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,27%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,77%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,39%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,14%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,76%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,22%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,43</t>
+          <t>26,88; 43,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,28</t>
+          <t>21,82; 43,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,49</t>
+          <t>15,68; 36,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>24,03; 58,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,49</t>
+          <t>33,31; 55,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,09</t>
+          <t>25,33; 50,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,9</t>
+          <t>31,74; 60,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,9</t>
+          <t>30,43; 60,13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>31,44; 44,78</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,32</t>
+          <t>27,42; 43,49</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,53</t>
+          <t>25,37; 41,44</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,11</t>
+          <t>31,53; 53,29</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,64%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,9%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,68%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,97%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,49%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,39%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,18%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,04%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,16%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,48%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,59%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,51%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>19,09; 35,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,98</t>
+          <t>18,8; 36,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,79</t>
+          <t>20,16; 39,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,96</t>
+          <t>12,29; 29,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,82</t>
+          <t>25,52; 48,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,77</t>
+          <t>36,42; 61,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,66</t>
+          <t>25,8; 49,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,62</t>
+          <t>22,16; 39,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,01</t>
+          <t>23,29; 37,07</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,16</t>
+          <t>30,03; 44,34</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>25,21; 38,48</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>19,17; 31,72</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,13%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,46%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,23%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,8%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,66%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,08%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,13%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,31%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,26%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,81%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,99%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,0%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,88</t>
+          <t>20,63; 39,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,28</t>
+          <t>15,9; 35,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>20,41; 39,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>12,27; 27,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>18,9; 50,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>20,66; 51,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,75</t>
+          <t>26,2; 52,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>26,53; 47,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,38</t>
+          <t>22,65; 39,37</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,58</t>
+          <t>19,73; 36,65</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,44</t>
+          <t>25,2; 41,06</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>22,03; 35,86</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,72%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,76%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,91%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,16%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,02%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,47%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,43%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,13%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,65%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,61%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,71%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,79%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>15,41; 41,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,66</t>
+          <t>9,9; 36,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,66</t>
+          <t>14,11; 42,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,46</t>
+          <t>11,18; 30,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>14,34; 64,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>21,69; 62,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>32,56; 72,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,86</t>
+          <t>19,9; 37,85</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,09</t>
+          <t>18,07; 41,77</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,09</t>
+          <t>18,85; 40,12</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,86</t>
+          <t>25,44; 49,38</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,07</t>
+          <t>17,23; 29,91</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>34,6%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,41%</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1459,12 +1459,12 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>0,0; 82,77</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>0,0; 54,45</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,04%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,99%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,16%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,37%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,96%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,98%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,41%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,72%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,51%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,95%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,6%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,62%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>25,66; 34,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>21,08; 31,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>22,77; 32,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>17,67; 27,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>34,12; 48,05</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>33,92; 47,98</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>34,96; 48,84</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>29,66; 40,56</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>29,8; 37,02</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>28,2; 36,87</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>28,67; 36,51</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>25,3; 32,47</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P6905-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P6905-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>42,19%</t>
+          <t>41,09%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>30,67%</t>
+          <t>29,56%</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,29; 77,89</t>
+          <t>10,82; 75,85</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,99; 57,87</t>
+          <t>7,65; 56,01</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>39,79%</t>
+          <t>41,75%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>44,77%</t>
+          <t>45,57%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>42,22%</t>
+          <t>43,5%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>24,03; 58,87</t>
+          <t>25,61; 61,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,43; 60,13</t>
+          <t>31,21; 60,98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>31,53; 53,29</t>
+          <t>32,63; 54,96</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>19,97%</t>
+          <t>20,07%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>30,04%</t>
+          <t>30,14%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>24,51%</t>
+          <t>24,52%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,29; 29,41</t>
+          <t>12,2; 29,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22,16; 39,33</t>
+          <t>22,3; 39,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>19,17; 31,72</t>
+          <t>19,15; 31,94</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,8%</t>
+          <t>18,63%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>35,31%</t>
+          <t>29,53%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>28,0%</t>
+          <t>25,04%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,27; 27,36</t>
+          <t>12,1; 27,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>26,53; 47,01</t>
+          <t>13,81; 41,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>22,03; 35,86</t>
+          <t>16,39; 32,02</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>20,16%</t>
+          <t>20,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>28,13%</t>
+          <t>28,45%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>23,79%</t>
+          <t>23,82%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,18; 30,55</t>
+          <t>11,15; 30,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>19,9; 37,85</t>
+          <t>20,19; 38,28</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>17,23; 29,91</t>
+          <t>17,28; 29,88</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1391,12 +1391,12 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>34,6%</t>
+          <t>34,87%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1459,12 +1459,12 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 82,77</t>
+          <t>0,0; 83,01</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 54,45</t>
+          <t>0,0; 54,04</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>30,04%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>25,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>27,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>22,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>40,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>40,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>41,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>34,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>33,51%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>31,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>32,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>28,62%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>22,85; 100</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>22,85; 100</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>30,04%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>25,99%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>27,16%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>22,84%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>40,96%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>40,98%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>41,41%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>32,3%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>33,51%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>31,95%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>32,6%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>27,67%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>25,66; 34,46</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>21,08; 31,07</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>22,77; 32,58</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>17,67; 27,71</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>17,97; 28,18</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>34,12; 48,05</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>33,92; 47,98</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>34,96; 48,84</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>29,66; 40,56</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>23,11; 38,05</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>29,8; 37,02</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>28,2; 36,87</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>28,67; 36,51</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>25,3; 32,47</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>22,88; 31,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P6905-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P6905-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,7 +725,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,23; 42,53</t>
+          <t>15,78; 43,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +735,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,74; 45,88</t>
+          <t>5,82; 45,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,42 +745,42 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>34,48; 79,64</t>
+          <t>33,83; 76,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 60,74</t>
+          <t>9,68; 61,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,58; 71,0</t>
+          <t>15,27; 66,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,82; 75,85</t>
+          <t>10,44; 74,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>26,22; 48,89</t>
+          <t>25,72; 49,75</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,8; 34,81</t>
+          <t>4,8; 36,63</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>13,25; 45,26</t>
+          <t>13,53; 45,93</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,65; 56,01</t>
+          <t>8,89; 61,05</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>26,88; 43,5</t>
+          <t>26,93; 43,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21,82; 43,12</t>
+          <t>21,57; 42,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,68; 36,77</t>
+          <t>17,01; 35,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>25,61; 61,35</t>
+          <t>25,19; 61,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>33,31; 55,36</t>
+          <t>33,78; 56,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,33; 50,56</t>
+          <t>25,57; 50,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>31,74; 60,17</t>
+          <t>32,13; 60,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>31,21; 60,98</t>
+          <t>32,33; 62,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>31,44; 44,78</t>
+          <t>31,78; 45,13</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>27,42; 43,49</t>
+          <t>26,82; 42,59</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>25,37; 41,44</t>
+          <t>24,79; 41,16</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>32,63; 54,96</t>
+          <t>31,89; 56,15</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,09; 35,1</t>
+          <t>19,35; 36,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,8; 36,73</t>
+          <t>19,01; 36,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,16; 39,32</t>
+          <t>20,38; 38,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,2; 29,26</t>
+          <t>12,37; 29,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>25,52; 48,05</t>
+          <t>25,68; 47,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>36,42; 61,11</t>
+          <t>37,23; 62,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>25,8; 49,17</t>
+          <t>26,04; 48,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22,3; 39,45</t>
+          <t>21,64; 39,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>23,29; 37,07</t>
+          <t>23,52; 37,15</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>30,03; 44,34</t>
+          <t>29,21; 43,62</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>25,21; 38,48</t>
+          <t>25,38; 39,78</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>19,15; 31,94</t>
+          <t>18,9; 31,03</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,63; 39,51</t>
+          <t>20,21; 38,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,9; 35,43</t>
+          <t>16,33; 36,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>20,41; 39,45</t>
+          <t>20,6; 39,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,1; 27,15</t>
+          <t>11,74; 27,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,9; 50,12</t>
+          <t>19,63; 50,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,66; 51,71</t>
+          <t>20,11; 53,3</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,2; 52,69</t>
+          <t>25,53; 54,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,81; 41,26</t>
+          <t>14,36; 40,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,65; 39,37</t>
+          <t>22,95; 38,43</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,73; 36,65</t>
+          <t>20,44; 36,71</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>25,2; 41,06</t>
+          <t>25,31; 41,61</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,39; 32,02</t>
+          <t>16,69; 32,62</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,41; 41,78</t>
+          <t>15,47; 42,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,9; 36,46</t>
+          <t>11,74; 36,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,11; 42,37</t>
+          <t>14,04; 42,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,15; 30,43</t>
+          <t>11,85; 31,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,34; 64,98</t>
+          <t>14,17; 64,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,69; 62,57</t>
+          <t>20,85; 62,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>32,56; 72,03</t>
+          <t>32,01; 73,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>20,19; 38,28</t>
+          <t>20,02; 37,41</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>18,07; 41,77</t>
+          <t>19,11; 42,27</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>18,85; 40,12</t>
+          <t>17,96; 40,19</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>25,44; 49,38</t>
+          <t>26,11; 50,08</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>17,28; 29,88</t>
+          <t>17,58; 30,43</t>
         </is>
       </c>
     </row>
@@ -1459,7 +1460,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 83,01</t>
+          <t>0,0; 81,16</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1480,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 54,04</t>
+          <t>0,0; 55,84</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>25,66; 34,46</t>
+          <t>25,47; 34,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>21,08; 31,07</t>
+          <t>21,41; 31,37</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>22,77; 32,58</t>
+          <t>22,91; 32,71</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>17,97; 28,18</t>
+          <t>17,89; 29,25</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>34,12; 48,05</t>
+          <t>35,05; 47,36</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>33,92; 47,98</t>
+          <t>34,47; 48,33</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>34,96; 48,84</t>
+          <t>34,99; 48,37</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>23,11; 38,05</t>
+          <t>23,67; 38,34</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>29,8; 37,02</t>
+          <t>30,19; 37,43</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>28,2; 36,87</t>
+          <t>27,81; 36,27</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>28,67; 36,51</t>
+          <t>28,26; 36,42</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>22,88; 31,68</t>
+          <t>23,13; 31,49</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que su trabajo le afecta de manera que tiene dolores de cabeza</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>13083</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>3346</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>11409</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>3024</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>4663</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>6305</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>24492</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>3024</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>8009</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>6306</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>7284; 20143</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1764</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>998; 7763</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2171</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>6719; 15215</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>973; 6216</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1778; 7787</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1601; 11419</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>16983; 32851</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>977; 7466</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>3897; 13225</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1897; 13025</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>49335</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>27307</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>20929</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>24664</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>35722</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>25067</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>20956</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>22764</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>85057</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>52374</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>41884</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>47428</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>38325; 61990</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>18610; 36778</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>13872; 29357</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>14879; 36201</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>26777; 44760</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>17160; 33617</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>14871; 28040</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>16150; 31232</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>70413; 99984</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>41139; 65334</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>31703; 52622</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>34765; 61216</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>33572</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>26330</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>32446</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>19175</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>25561</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>35871</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>25854</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>22768</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>59133</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>62201</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>58300</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>41944</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>24392; 46324</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>18604; 35686</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>23056; 43392</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>11818; 27832</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>17985; 33560</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>27044; 45029</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>18610; 34623</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>16352; 29685</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>46110; 72847</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>49802; 74382</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>46854; 73435</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>32342; 53093</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>32361</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>22029</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>26724</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>20219</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>12467</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>14540</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>21952</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>45763</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>44828</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>36569</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>48676</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>65981</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>22451; 42909</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>14705; 32973</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>18834; 36195</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>12749; 29577</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>7271; 18627</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>8336; 22092</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>14323; 30311</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>22247; 62937</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>34003; 56935</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>26880; 48270</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>37339; 61394</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>43974; 85956</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>12719</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>8878</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>11619</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>13491</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>5010</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>9547</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>16149</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>15793</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>17729</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>18425</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>27768</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>29283</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>7098; 19423</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4792; 14824</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>6296; 18966</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>7993; 21433</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1971; 8918</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>4918; 14727</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>9859; 22540</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>11110; 20763</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>11423; 25271</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>11565; 25883</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>19754; 37881</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>21610; 37417</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1016</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>1016</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1070</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 894</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2365</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1070</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>0; 3259</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>188; 821</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>188; 821</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>141892</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>84545</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>95064</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>77549</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>90168</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>88049</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>89574</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>114409</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>232061</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>172594</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>184638</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>191958</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>120280; 163652</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>69651; 102071</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>80193; 114490</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>60738; 99292</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>77154; 104241</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>74043; 103828</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>75682; 104613</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>83849; 135810</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>209046; 259159</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>150211; 195919</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>160012; 206249</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>160456; 218460</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>